--- a/数据库标签过滤/milvus.xlsx
+++ b/数据库标签过滤/milvus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\论文\Milvus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30B205-65E5-4D9C-986F-99AA6E23E293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33592797-246B-4817-84C9-9AA853C1282E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="2130" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4538" yWindow="2213" windowWidth="15870" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>5_1000_sift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.84秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8_1000_sift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,6 +236,62 @@
   </si>
   <si>
     <t>多线程qps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5440MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3795MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>968MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81.88s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26.76s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.52s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.44s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.84s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.06s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多进程qps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单线程qps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,38 +628,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="2" width="13.9296875" customWidth="1"/>
+    <col min="3" max="3" width="9.86328125" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" customWidth="1"/>
+    <col min="7" max="7" width="12.73046875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -621,16 +675,22 @@
       <c r="C2">
         <v>0.63321000000000005</v>
       </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>1281.8399999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>3231.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>254.77</v>
@@ -638,13 +698,19 @@
       <c r="C3">
         <v>0.74170000000000003</v>
       </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
       <c r="G3">
         <v>1274.3499999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>3199.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>251.39</v>
@@ -652,13 +718,19 @@
       <c r="C4">
         <v>0.78680000000000005</v>
       </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
       <c r="G4">
         <v>1266.24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>2928.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>248.58</v>
@@ -666,13 +738,19 @@
       <c r="C5">
         <v>0.85940000000000005</v>
       </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
       <c r="G5">
         <v>1254.1199999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>2900.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>242.48</v>
@@ -680,13 +758,19 @@
       <c r="C6">
         <v>0.9</v>
       </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
       <c r="G6">
         <v>1244.4100000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>2861.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>232.68</v>
@@ -694,13 +778,19 @@
       <c r="C7">
         <v>0.94510000000000005</v>
       </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
       <c r="G7">
         <v>1234.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>2682.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>218.93</v>
@@ -708,13 +798,19 @@
       <c r="C8">
         <v>0.97870000000000001</v>
       </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
       <c r="G8">
         <v>1223.45</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>2299.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>192.7</v>
@@ -722,13 +818,19 @@
       <c r="C9">
         <v>0.99650000000000005</v>
       </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
       <c r="G9">
         <v>1219.58</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>2158.9499999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>215.17</v>
@@ -736,13 +838,22 @@
       <c r="C11">
         <v>0.61939999999999995</v>
       </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
       <c r="G11">
         <v>1110.4100000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>2017.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>208.96</v>
@@ -750,13 +861,19 @@
       <c r="C12">
         <v>0.70330000000000004</v>
       </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
       <c r="G12">
         <v>1094.54</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>1825.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>200.73</v>
@@ -764,13 +881,19 @@
       <c r="C13">
         <v>0.7641</v>
       </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
       <c r="G13">
         <v>1075.31</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>1685.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>196.1</v>
@@ -778,13 +901,19 @@
       <c r="C14">
         <v>0.84209999999999996</v>
       </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
       <c r="G14">
         <v>1024.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>1466.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>193.72</v>
@@ -792,13 +921,19 @@
       <c r="C15">
         <v>0.88939999999999997</v>
       </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
       <c r="G15">
         <v>1015.87</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1322.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>190.5</v>
@@ -806,13 +941,19 @@
       <c r="C16">
         <v>0.91890000000000005</v>
       </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
       <c r="G16">
         <v>969.42</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>1172.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>175.16</v>
@@ -820,13 +961,19 @@
       <c r="C17">
         <v>0.97689999999999999</v>
       </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
       <c r="G17">
         <v>840.37</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>962.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>164.34</v>
@@ -834,13 +981,19 @@
       <c r="C18">
         <v>0.99219999999999997</v>
       </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
       <c r="G18">
         <v>721.52</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>765.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>205.22</v>
@@ -848,13 +1001,22 @@
       <c r="C20">
         <v>0.60289999999999999</v>
       </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
       <c r="G20">
         <v>1205.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>2983.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>198.38</v>
@@ -862,13 +1024,19 @@
       <c r="C21">
         <v>0.66039999999999999</v>
       </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
       <c r="G21">
         <v>1190.6500000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>2892.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>194.57</v>
@@ -876,13 +1044,19 @@
       <c r="C22">
         <v>0.69730000000000003</v>
       </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
       <c r="G22">
         <v>1171.47</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>2605.4499999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>192.2</v>
@@ -890,13 +1064,19 @@
       <c r="C23">
         <v>0.76439999999999997</v>
       </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
       <c r="G23">
         <v>1152.3499999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>2615.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>187.15</v>
@@ -904,13 +1084,19 @@
       <c r="C24">
         <v>0.8105</v>
       </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
       <c r="G24">
         <v>1131.95</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>2506.2800000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>180.2</v>
@@ -918,13 +1104,19 @@
       <c r="C25">
         <v>0.84360000000000002</v>
       </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
       <c r="G25">
         <v>1002.52</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>2373.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>155.30000000000001</v>
@@ -932,13 +1124,19 @@
       <c r="C26">
         <v>0.93059999999999998</v>
       </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
       <c r="G26">
         <v>949.61</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>1601.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>137.80000000000001</v>
@@ -946,13 +1144,19 @@
       <c r="C27">
         <v>0.96609999999999996</v>
       </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
       <c r="G27">
         <v>910.45</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>1375.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>124.96</v>
@@ -960,13 +1164,19 @@
       <c r="C28">
         <v>0.98319999999999996</v>
       </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
       <c r="G28">
         <v>843.77</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>1248.6600000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>210.63</v>
@@ -974,13 +1184,22 @@
       <c r="C30">
         <v>0.69599999999999995</v>
       </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
       <c r="G30">
         <v>1288.4000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>3547.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>205.06</v>
@@ -988,13 +1207,19 @@
       <c r="C31">
         <v>0.76300000000000001</v>
       </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
       <c r="G31">
         <v>1261.8399999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>3509.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>198.42</v>
@@ -1002,13 +1227,19 @@
       <c r="C32">
         <v>0.80649999999999999</v>
       </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
       <c r="G32">
         <v>1255.1600000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>3506.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33">
         <v>194.83</v>
@@ -1016,13 +1247,19 @@
       <c r="C33">
         <v>0.88</v>
       </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
       <c r="G33">
         <v>1252.95</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>3162.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>188.28</v>
@@ -1030,13 +1267,19 @@
       <c r="C34">
         <v>0.94899999999999995</v>
       </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
       <c r="G34">
         <v>1240.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>2807.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>184.58</v>
@@ -1044,13 +1287,19 @@
       <c r="C35">
         <v>0.96750000000000003</v>
       </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
       <c r="G35">
         <v>1221.47</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>2588.5300000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>180.96</v>
@@ -1058,13 +1307,19 @@
       <c r="C36">
         <v>0.98299999999999998</v>
       </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
       <c r="G36">
         <v>1185.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>2378.0100000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>173.45</v>
@@ -1072,13 +1327,19 @@
       <c r="C37">
         <v>0.99450000000000005</v>
       </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
       <c r="G37">
         <v>1089.3599999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>1810.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>341.75</v>
@@ -1086,13 +1347,22 @@
       <c r="C39">
         <v>0.76500000000000001</v>
       </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
       <c r="G39">
         <v>1218.58</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>4665.1499999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>339.12</v>
@@ -1100,13 +1370,19 @@
       <c r="C40">
         <v>0.78320000000000001</v>
       </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
       <c r="G40">
         <v>1094.19</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>5158.6000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>331.9</v>
@@ -1114,13 +1390,19 @@
       <c r="C41">
         <v>0.875</v>
       </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
       <c r="G41">
         <v>1071.58</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>4837.43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>327.35000000000002</v>
@@ -1128,13 +1410,19 @@
       <c r="C42">
         <v>0.92120000000000002</v>
       </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
       <c r="G42">
         <v>1066.48</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>5167.2299999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>311.88</v>
@@ -1142,13 +1430,19 @@
       <c r="C43">
         <v>0.95599999999999996</v>
       </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
       <c r="G43">
         <v>1065.4000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>4710.4799999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>302.20999999999998</v>
@@ -1156,13 +1450,19 @@
       <c r="C44">
         <v>0.97799999999999998</v>
       </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
       <c r="G44">
         <v>1056.6199999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>5223.66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>295.41000000000003</v>
@@ -1170,13 +1470,19 @@
       <c r="C45">
         <v>0.98799999999999999</v>
       </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
       <c r="G45">
         <v>1045.3699999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>5081.6099999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>288.20999999999998</v>
@@ -1184,13 +1490,19 @@
       <c r="C46">
         <v>0.999</v>
       </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
       <c r="G46">
         <v>1020.86</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>4323.37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>308.01</v>
@@ -1198,13 +1510,22 @@
       <c r="C48">
         <v>0.66900000000000004</v>
       </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
       <c r="G48">
         <v>1035.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>3986.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B49">
         <v>292.54000000000002</v>
@@ -1212,13 +1533,19 @@
       <c r="C49">
         <v>0.77600000000000002</v>
       </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
       <c r="G49">
         <v>1008.91</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>4024.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50">
         <v>287.63</v>
@@ -1226,13 +1553,19 @@
       <c r="C50">
         <v>0.86750000000000005</v>
       </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
       <c r="G50">
         <v>994.33</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>4011.58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B51">
         <v>275.88</v>
@@ -1240,13 +1573,19 @@
       <c r="C51">
         <v>0.90649999999999997</v>
       </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
       <c r="G51">
         <v>982.45</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>3492.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B52">
         <v>248.48</v>
@@ -1254,13 +1593,19 @@
       <c r="C52">
         <v>0.95599999999999996</v>
       </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
       <c r="G52">
         <v>968.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>3405.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B53">
         <v>239.41</v>
@@ -1268,13 +1613,19 @@
       <c r="C53">
         <v>0.97650000000000003</v>
       </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
       <c r="G53">
         <v>954.53</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>3203.63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54">
         <v>223.47</v>
@@ -1282,13 +1633,19 @@
       <c r="C54">
         <v>0.98699999999999999</v>
       </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
       <c r="G54">
         <v>936.67</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>3197.68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B55">
         <v>207.74</v>
@@ -1296,8 +1653,14 @@
       <c r="C55">
         <v>0.99</v>
       </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
       <c r="G55">
         <v>928.19</v>
+      </c>
+      <c r="I55">
+        <v>2745.69</v>
       </c>
     </row>
   </sheetData>
